--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/20/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.0145</v>
+        <v>-12.20209999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.2433</v>
+        <v>-22.25820000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.73249999999999</v>
+        <v>-21.6091</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.6259</v>
+        <v>-12.4835</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,13 +597,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.43969999999999</v>
+        <v>-21.53299999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.0803</v>
+        <v>-10.2577</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.57969999999999</v>
+        <v>-14.25669999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.4658</v>
+        <v>-13.74989999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.19460000000001</v>
+        <v>-22.06080000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.71569999999999</v>
+        <v>-21.78959999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.58560000000001</v>
+        <v>-12.65640000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.6755</v>
+        <v>-12.9646</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.4828</v>
+        <v>-13.3357</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.07760000000001</v>
+        <v>-12.84160000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.97059999999999</v>
+        <v>-19.56689999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.8143</v>
+        <v>-12.7131</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.30450000000001</v>
+        <v>-12.62660000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.22769999999999</v>
+        <v>-12.4425</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.2768</v>
+        <v>-11.97959999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2482</v>
+        <v>-22.24939999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.26059999999999</v>
+        <v>-12.4151</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.45499999999999</v>
+        <v>-21.46359999999998</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.75460000000001</v>
+        <v>-10.63630000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.15219999999998</v>
+        <v>-20.37179999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.63059999999998</v>
+        <v>-19.53729999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.29179999999998</v>
+        <v>-20.37079999999998</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.6295</v>
+        <v>-19.54190000000001</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.96010000000001</v>
+        <v>-21.9747</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.95410000000002</v>
+        <v>-21.86710000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.31689999999998</v>
+        <v>-21.36749999999998</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.9061</v>
+        <v>-12.8098</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.2091</v>
+        <v>-12.8786</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1681,7 +1681,7 @@
         <v>5.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.22309999999999</v>
+        <v>-13.8461</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3023</v>
+        <v>-10.34119999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,7 +1765,7 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.1143</v>
+        <v>-12.4258</v>
       </c>
       <c r="D95" t="n">
         <v>-6.1</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.21760000000001</v>
+        <v>-12.77210000000002</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.7715</v>
+        <v>-12.1021</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.17859999999998</v>
+        <v>-20.23809999999999</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.3732</v>
+        <v>-12.2978</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.35769999999997</v>
+        <v>-20.40319999999998</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.28130000000001</v>
+        <v>-12.3923</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
